--- a/Tarea 3 v2 en n3.xlsx
+++ b/Tarea 3 v2 en n3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="1" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7485" tabRatio="590" firstSheet="1" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="f_and_ouput" sheetId="1" state="visible" r:id="rId1"/>
@@ -1687,7 +1687,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1747,11 +1747,9 @@
       </c>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n">
-        <v>10</v>
+        <v>0.01</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F2" s="4" t="n"/>
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -1760,14 +1758,14 @@
       </c>
       <c r="B3" s="11" t="n"/>
       <c r="C3" s="4" t="n">
-        <v>176.77</v>
+        <v>169.7</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-114.5916</v>
+        <v>-10</v>
       </c>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n">
-        <v>1</v>
+        <v>1.061</v>
       </c>
       <c r="G3" s="4" t="n"/>
     </row>
@@ -11316,11 +11314,11 @@
   </sheetPr>
   <dimension ref="A1:Y220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -11388,16 +11386,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="11" t="n"/>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
-      <c r="E2" s="4" t="n"/>
-      <c r="F2" s="4" t="n">
-        <v>10</v>
+      <c r="E2" s="4" t="n">
+        <v>265.3</v>
       </c>
+      <c r="F2" s="4" t="n"/>
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="6" t="n"/>
@@ -11427,10 +11425,10 @@
       </c>
       <c r="C3" s="11" t="n"/>
       <c r="D3" s="4" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>1000</v>
+        <v>265.3</v>
       </c>
       <c r="F3" s="4" t="n"/>
       <c r="G3" s="6" t="n"/>
@@ -11458,15 +11456,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="4" t="n">
-        <v>1000</v>
+      <c r="D4" s="4" t="n">
+        <v>2</v>
       </c>
+      <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>530.5</v>
       </c>
       <c r="G4" s="6" t="n"/>
       <c r="H4" s="6" t="n"/>
@@ -11490,21 +11488,19 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="11" t="n"/>
       <c r="D5" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1000</v>
+        <v>265.3</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="F5" s="4" t="n"/>
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="6" t="n"/>
       <c r="I5" s="6" t="n"/>
@@ -18192,16 +18188,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="n">
-        <v>126.6390101208304</v>
+        <v>115.2584477525045</v>
       </c>
       <c r="C2" s="9" t="n">
-        <v>-4.492153763454759</v>
+        <v>0.9561967516779635</v>
       </c>
       <c r="D2" s="9" t="n">
-        <v>10.00597398647787</v>
+        <v>0.009562234506542734</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>-0.1916614139279944</v>
+        <v>0.0001806537636677621</v>
       </c>
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="7" t="n"/>
@@ -18228,16 +18224,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="n">
-        <v>126.9838392849399</v>
+        <v>118.1856250521394</v>
       </c>
       <c r="C3" s="9" t="n">
-        <v>-4.600953638344939</v>
+        <v>0.2717420581300506</v>
       </c>
       <c r="D3" s="9" t="n">
-        <v>11.02361822207353</v>
+        <v>0.02490673902528644</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.1418299268706676</v>
+        <v>0.09832789338869194</v>
       </c>
       <c r="F3" s="7" t="n"/>
       <c r="G3" s="7" t="n"/>
@@ -18264,16 +18260,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="n">
-        <v>125.3593020661317</v>
+        <v>115.8555030915562</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>65.29121298742159</v>
+        <v>-9.854585457887914</v>
       </c>
       <c r="D4" s="9" t="n">
-        <v>4.694347270581019e-05</v>
+        <v>0.07273328754165745</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.3778139629163947</v>
+        <v>0.3783531617320866</v>
       </c>
       <c r="F4" s="7" t="n"/>
       <c r="G4" s="7" t="n"/>
@@ -25960,7 +25956,7 @@
   </sheetPr>
   <dimension ref="A1:X220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -26024,15 +26020,11 @@
       <c r="B2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>-84.18759769291522</t>
-        </is>
+      <c r="C2" s="4" t="n">
+        <v>54411.93449965212</v>
       </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>-122.19424518060416</t>
-        </is>
+      <c r="D2" s="4" t="n">
+        <v>23080.43993820581</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -26062,15 +26054,11 @@
       <c r="B3" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>85.00908218277357</t>
-        </is>
+      <c r="C3" s="4" t="n">
+        <v>-88.20871984138842</v>
       </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>-121.1355910014563</t>
-        </is>
+      <c r="D3" s="4" t="n">
+        <v>1199.151455175486</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32599,13 +32587,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.514136934845075e-06</v>
+        <v>53134.19184963147</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-0.0006668798235663331</v>
+        <v>26571.90456917812</v>
       </c>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
@@ -32636,10 +32624,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1548806781212139</v>
+        <v>10.40446664394481</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05839001565169762</v>
+        <v>104.0634985240737</v>
       </c>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -32667,13 +32655,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0</v>
+        <v>963.2869896980937</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-80.70727480272335</v>
+        <v>-2408.235536011754</v>
       </c>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
@@ -32698,16 +32686,16 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6089604969022475</v>
+        <v>215.4701547331178</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>-161.2984051558635</v>
+        <v>10.77545774155622</v>
       </c>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
@@ -39171,22 +39159,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="10" t="n">
-        <v>0.8214844898583493</v>
+        <v>54323.72577981073</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>-243.3298361820605</v>
+        <v>24279.5913933813</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>14.49358278235338</v>
+        <v>56953.00662972117</v>
       </c>
       <c r="D2" s="10" t="n">
-        <v>117632.6347360765</v>
+        <v>25346.99008162551</v>
       </c>
       <c r="E2" s="10" t="n">
-        <v>-13.6721</v>
+        <v>-2629.2808</v>
       </c>
       <c r="F2" s="10" t="n">
-        <v>-117875.9646</v>
+        <v>-1067.3987</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
